--- a/data/seluruh Kompetitor.xlsx
+++ b/data/seluruh Kompetitor.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>KATA PERORANGAN UNDER-21 PUTRA</t>
+  </si>
+  <si>
+    <t>FESTIVAL KUMITE UNDER-21 -60KG PUTRA</t>
   </si>
   <si>
     <t>Age Categories</t>
@@ -579,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
@@ -733,6 +736,35 @@
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -755,232 +787,232 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/seluruh Kompetitor.xlsx
+++ b/data/seluruh Kompetitor.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -39,39 +39,6 @@
   </si>
   <si>
     <t>Festival/Age Category</t>
-  </si>
-  <si>
-    <t>Raehan Fikrul Wahyu</t>
-  </si>
-  <si>
-    <t>BKC</t>
-  </si>
-  <si>
-    <t>Satria Galuh</t>
-  </si>
-  <si>
-    <t>Putra</t>
-  </si>
-  <si>
-    <t>2004-12-27</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>FESTIVAL KATA PERORANGAN UNDER-21 SABUK HITAM PUTRA</t>
-  </si>
-  <si>
-    <t>KATA BEREGU UNDER-21 PUTRA</t>
-  </si>
-  <si>
-    <t>KATA PERORANGAN UNDER-21 PUTRA</t>
-  </si>
-  <si>
-    <t>FESTIVAL KUMITE UNDER-21 -60KG PUTRA</t>
   </si>
   <si>
     <t>Age Categories</t>
@@ -232,15 +199,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -582,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
@@ -622,154 +586,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>52</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
@@ -787,236 +606,236 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>